--- a/src/homeLevelUp.xlsx
+++ b/src/homeLevelUp.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693061E-66E0-4E64-B3DE-A40B74C80DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -95,12 +94,143 @@
   <si>
     <t>消耗数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子星阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etBundle</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>me</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层别墅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两层别墅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baker_house</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,130 +558,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E10"/>
+      <selection activeCell="J49" sqref="J49:J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -574,145 +738,1670 @@
       <c r="M3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <f>B4*100+C4</f>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>B5*100+C5</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:A11" si="0">B6*100+C6</f>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>B12*100+C12</f>
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A14" si="1">B13*100+C13</f>
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>B15*100+C15</f>
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>B16*100+C16</f>
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:A22" si="2">B17*100+C17</f>
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>B23*100+C23</f>
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:A25" si="3">B24*100+C24</f>
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>B26*100+C26</f>
         <v>200</v>
       </c>
-      <c r="F5">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>B27*100+C27</f>
+        <v>201</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>100</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ref="A28:A33" si="4">B28*100+C28</f>
+        <v>202</v>
+      </c>
+      <c r="B28">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>300</v>
       </c>
-      <c r="F6">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>B34*100+C34</f>
+        <v>208</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:A36" si="5">B35*100+C35</f>
+        <v>209</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>B37*100+C37</f>
+        <v>300</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>B38*100+C38</f>
+        <v>301</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>100</v>
       </c>
-      <c r="G6">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ref="A39:A44" si="6">B39*100+C39</f>
+        <v>302</v>
+      </c>
+      <c r="B39">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>303</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>304</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>305</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>307</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>400</v>
       </c>
-      <c r="F7">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>B45*100+C45</f>
+        <v>308</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" ref="A46:A47" si="7">B46*100+C46</f>
+        <v>309</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>B48*100+C48</f>
+        <v>400</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>B49*100+C49</f>
+        <v>401</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>100</v>
       </c>
-      <c r="G7">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" ref="A50:A55" si="8">B50*100+C50</f>
+        <v>402</v>
+      </c>
+      <c r="B50">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="8"/>
+        <v>403</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="8"/>
+        <v>404</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="8"/>
+        <v>406</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="8"/>
+        <v>407</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>B56*100+C56</f>
+        <v>408</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ref="A57:A58" si="9">B57*100+C57</f>
+        <v>409</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>500</v>
       </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>600</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>700</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="9"/>
+        <v>410</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -731,14 +2420,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,16 +2440,14 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,13 +2457,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -786,13 +2475,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/homeLevelUp.xlsx
+++ b/src/homeLevelUp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="41">
   <si>
     <t>int</t>
   </si>
@@ -225,6 +225,13 @@
   </si>
   <si>
     <t>Baker_house</t>
+  </si>
+  <si>
+    <t>HolidayHouse</t>
+  </si>
+  <si>
+    <t>Stylizedhouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,32 +568,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49:J58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -642,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -754,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>B4*100+C4</f>
         <v>0</v>
@@ -784,7 +791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>B5*100+C5</f>
         <v>1</v>
@@ -814,7 +821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A11" si="0">B6*100+C6</f>
         <v>2</v>
@@ -844,7 +851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -874,7 +881,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -904,7 +911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -934,7 +941,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -964,7 +971,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -994,7 +1001,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>B12*100+C12</f>
         <v>8</v>
@@ -1024,7 +1031,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ref="A13:A14" si="1">B13*100+C13</f>
         <v>9</v>
@@ -1054,7 +1061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1084,7 +1091,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>B15*100+C15</f>
         <v>100</v>
@@ -1102,7 +1109,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1114,7 +1121,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>B16*100+C16</f>
         <v>101</v>
@@ -1132,7 +1139,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1144,7 +1151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ref="A17:A22" si="2">B17*100+C17</f>
         <v>102</v>
@@ -1162,7 +1169,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1174,7 +1181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -1192,7 +1199,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1204,7 +1211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -1222,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1234,7 +1241,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -1252,7 +1259,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1264,7 +1271,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -1282,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1294,7 +1301,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -1312,7 +1319,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1324,7 +1331,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>B23*100+C23</f>
         <v>108</v>
@@ -1342,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1354,7 +1361,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ref="A24:A25" si="3">B24*100+C24</f>
         <v>109</v>
@@ -1372,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1384,7 +1391,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -1402,7 +1409,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1414,7 +1421,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>B26*100+C26</f>
         <v>200</v>
@@ -1432,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1444,7 +1451,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>B27*100+C27</f>
         <v>201</v>
@@ -1462,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1474,7 +1481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ref="A28:A33" si="4">B28*100+C28</f>
         <v>202</v>
@@ -1492,7 +1499,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1504,7 +1511,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>203</v>
@@ -1522,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1534,7 +1541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>204</v>
@@ -1552,7 +1559,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1564,7 +1571,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>205</v>
@@ -1582,7 +1589,7 @@
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1594,7 +1601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>206</v>
@@ -1612,7 +1619,7 @@
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1624,7 +1631,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>207</v>
@@ -1642,7 +1649,7 @@
         <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1654,7 +1661,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>B34*100+C34</f>
         <v>208</v>
@@ -1672,7 +1679,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1684,7 +1691,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ref="A35:A36" si="5">B35*100+C35</f>
         <v>209</v>
@@ -1702,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1714,7 +1721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>210</v>
@@ -1732,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1744,7 +1751,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>B37*100+C37</f>
         <v>300</v>
@@ -1774,7 +1781,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>B38*100+C38</f>
         <v>301</v>
@@ -1804,7 +1811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ref="A39:A44" si="6">B39*100+C39</f>
         <v>302</v>
@@ -1834,7 +1841,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="6"/>
         <v>303</v>
@@ -1864,7 +1871,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="6"/>
         <v>304</v>
@@ -1894,7 +1901,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="6"/>
         <v>305</v>
@@ -1924,7 +1931,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="6"/>
         <v>306</v>
@@ -1954,7 +1961,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="6"/>
         <v>307</v>
@@ -1984,7 +1991,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>B45*100+C45</f>
         <v>308</v>
@@ -2014,7 +2021,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ref="A46:A47" si="7">B46*100+C46</f>
         <v>309</v>
@@ -2044,7 +2051,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="7"/>
         <v>310</v>
@@ -2074,7 +2081,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>B48*100+C48</f>
         <v>400</v>
@@ -2092,7 +2099,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2104,7 +2111,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>B49*100+C49</f>
         <v>401</v>
@@ -2122,7 +2129,7 @@
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2134,7 +2141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ref="A50:A55" si="8">B50*100+C50</f>
         <v>402</v>
@@ -2152,7 +2159,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2164,7 +2171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>403</v>
@@ -2182,7 +2189,7 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2194,7 +2201,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>404</v>
@@ -2212,7 +2219,7 @@
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2224,7 +2231,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>405</v>
@@ -2242,7 +2249,7 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2254,7 +2261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="8"/>
         <v>406</v>
@@ -2272,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2284,7 +2291,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="8"/>
         <v>407</v>
@@ -2302,7 +2309,7 @@
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2314,7 +2321,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>B56*100+C56</f>
         <v>408</v>
@@ -2332,7 +2339,7 @@
         <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2344,7 +2351,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ref="A57:A58" si="9">B57*100+C57</f>
         <v>409</v>
@@ -2362,7 +2369,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2374,7 +2381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="9"/>
         <v>410</v>
@@ -2392,7 +2399,7 @@
         <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2412,6 +2419,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2419,69 +2437,58 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/src/homeLevelUp.xlsx
+++ b/src/homeLevelUp.xlsx
@@ -568,32 +568,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48:J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>B4*100+C4</f>
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>B5*100+C5</f>
         <v>1</v>
@@ -818,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A11" si="0">B6*100+C6</f>
         <v>2</v>
@@ -848,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -878,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -908,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -938,10 +938,16 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -968,10 +974,16 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -998,10 +1010,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>B12*100+C12</f>
         <v>8</v>
@@ -1028,10 +1046,16 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A14" si="1">B13*100+C13</f>
         <v>9</v>
@@ -1058,10 +1082,16 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1088,10 +1118,16 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>B15*100+C15</f>
         <v>100</v>
@@ -1118,10 +1154,16 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>B16*100+C16</f>
         <v>101</v>
@@ -1148,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:A22" si="2">B17*100+C17</f>
         <v>102</v>
@@ -1178,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -1208,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -1238,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -1268,10 +1310,16 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -1298,10 +1346,16 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -1328,10 +1382,16 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>B23*100+C23</f>
         <v>108</v>
@@ -1358,10 +1418,16 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:A25" si="3">B24*100+C24</f>
         <v>109</v>
@@ -1388,10 +1454,16 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -1418,10 +1490,16 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>B26*100+C26</f>
         <v>200</v>
@@ -1448,10 +1526,16 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>B27*100+C27</f>
         <v>201</v>
@@ -1478,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ref="A28:A33" si="4">B28*100+C28</f>
         <v>202</v>
@@ -1508,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>203</v>
@@ -1538,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>204</v>
@@ -1568,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>205</v>
@@ -1598,10 +1682,16 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>206</v>
@@ -1628,10 +1718,16 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>207</v>
@@ -1658,10 +1754,16 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>B34*100+C34</f>
         <v>208</v>
@@ -1688,10 +1790,16 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35:A36" si="5">B35*100+C35</f>
         <v>209</v>
@@ -1718,10 +1826,16 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>210</v>
@@ -1748,10 +1862,16 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>B37*100+C37</f>
         <v>300</v>
@@ -1778,10 +1898,16 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>B38*100+C38</f>
         <v>301</v>
@@ -1808,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39:A44" si="6">B39*100+C39</f>
         <v>302</v>
@@ -1838,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="6"/>
         <v>303</v>
@@ -1868,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="6"/>
         <v>304</v>
@@ -1898,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="6"/>
         <v>305</v>
@@ -1928,10 +2054,16 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="6"/>
         <v>306</v>
@@ -1958,10 +2090,16 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="6"/>
         <v>307</v>
@@ -1988,10 +2126,16 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>B45*100+C45</f>
         <v>308</v>
@@ -2018,10 +2162,16 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46:A47" si="7">B46*100+C46</f>
         <v>309</v>
@@ -2048,10 +2198,16 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="7"/>
         <v>310</v>
@@ -2078,10 +2234,16 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>B48*100+C48</f>
         <v>400</v>
@@ -2108,10 +2270,16 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>B49*100+C49</f>
         <v>401</v>
@@ -2138,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ref="A50:A55" si="8">B50*100+C50</f>
         <v>402</v>
@@ -2168,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>403</v>
@@ -2198,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>404</v>
@@ -2228,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>405</v>
@@ -2258,10 +2426,16 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="8"/>
         <v>406</v>
@@ -2288,10 +2462,16 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="8"/>
         <v>407</v>
@@ -2318,10 +2498,16 @@
         <v>1</v>
       </c>
       <c r="J55">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>B56*100+C56</f>
         <v>408</v>
@@ -2348,10 +2534,16 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ref="A57:A58" si="9">B57*100+C57</f>
         <v>409</v>
@@ -2378,10 +2570,16 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="9"/>
         <v>410</v>
@@ -2408,7 +2606,13 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <v>550</v>
+        <v>10000</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2419,14 +2623,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2438,16 +2644,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2458,13 +2662,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2476,13 +2680,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/homeLevelUp.xlsx
+++ b/src/homeLevelUp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
   <si>
     <t>int</t>
   </si>
@@ -222,9 +222,6 @@
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baker_house</t>
   </si>
   <si>
     <t>HolidayHouse</t>
@@ -568,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48:J58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -779,7 +776,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -839,7 +836,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -899,7 +896,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -929,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -965,7 +962,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1001,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1037,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1073,7 +1070,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1145,7 +1142,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1181,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1211,7 +1208,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1271,7 +1268,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1301,7 +1298,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1337,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1373,7 +1370,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1409,7 +1406,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1445,7 +1442,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1481,7 +1478,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1517,7 +1514,7 @@
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1553,7 +1550,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1583,7 +1580,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1613,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1643,7 +1640,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1673,7 +1670,7 @@
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1709,7 +1706,7 @@
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1745,7 +1742,7 @@
         <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1781,7 +1778,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1817,7 +1814,7 @@
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1853,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2261,7 +2258,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2297,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2327,7 +2324,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2357,7 +2354,7 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2387,7 +2384,7 @@
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2417,7 +2414,7 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2453,7 +2450,7 @@
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2489,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2525,7 +2522,7 @@
         <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2561,7 +2558,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2597,7 +2594,7 @@
         <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2623,16 +2620,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2644,14 +2639,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2662,13 +2659,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2680,13 +2677,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/homeLevelUp.xlsx
+++ b/src/homeLevelUp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>HolidayHouse</t>
-  </si>
-  <si>
-    <t>Stylizedhouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -776,7 +772,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -806,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -836,7 +832,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -866,7 +862,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -896,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -926,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -962,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -998,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1034,7 +1030,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1070,7 +1066,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1106,7 +1102,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1142,7 +1138,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1178,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1208,7 +1204,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1238,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1268,7 +1264,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1298,7 +1294,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1334,7 +1330,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1370,7 +1366,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1406,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1442,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1478,7 +1474,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2620,14 +2616,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2639,16 +2637,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2659,13 +2655,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2677,13 +2673,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/homeLevelUp.xlsx
+++ b/src/homeLevelUp.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2D4DA-A232-4703-A8B7-0EB41ECFA40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -204,33 +213,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层别墅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两层别墅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HolidayHouse</t>
+  </si>
+  <si>
+    <t>农舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧人屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,35 +567,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -642,7 +651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -754,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>B4*100+C4</f>
         <v>0</v>
@@ -769,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -784,7 +793,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>B5*100+C5</f>
         <v>1</v>
@@ -799,10 +808,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -814,7 +823,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A11" si="0">B6*100+C6</f>
         <v>2</v>
@@ -829,10 +838,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -844,7 +853,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -859,10 +868,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -874,7 +883,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -889,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -904,7 +913,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -919,10 +928,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -940,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -955,10 +964,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -976,7 +985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -991,10 +1000,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1012,7 +1021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>B12*100+C12</f>
         <v>8</v>
@@ -1027,10 +1036,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1048,7 +1057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ref="A13:A14" si="1">B13*100+C13</f>
         <v>9</v>
@@ -1063,10 +1072,10 @@
         <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1084,7 +1093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1099,10 +1108,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1120,7 +1129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>B15*100+C15</f>
         <v>100</v>
@@ -1132,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1156,7 +1165,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>B16*100+C16</f>
         <v>101</v>
@@ -1168,13 +1177,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1186,7 +1195,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ref="A17:A22" si="2">B17*100+C17</f>
         <v>102</v>
@@ -1198,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1216,7 +1225,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -1228,13 +1237,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1246,7 +1255,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -1258,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1276,7 +1285,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -1288,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1312,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -1324,13 +1333,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1348,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -1360,13 +1369,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1384,7 +1393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>B23*100+C23</f>
         <v>108</v>
@@ -1396,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1420,7 +1429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ref="A24:A25" si="3">B24*100+C24</f>
         <v>109</v>
@@ -1432,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1456,7 +1465,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -1468,13 +1477,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1492,7 +1501,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>B26*100+C26</f>
         <v>200</v>
@@ -1504,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1528,7 +1537,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>B27*100+C27</f>
         <v>201</v>
@@ -1540,13 +1549,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1558,7 +1567,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ref="A28:A33" si="4">B28*100+C28</f>
         <v>202</v>
@@ -1570,13 +1579,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1588,7 +1597,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>203</v>
@@ -1600,13 +1609,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1618,7 +1627,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>204</v>
@@ -1630,13 +1639,13 @@
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1648,7 +1657,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>205</v>
@@ -1660,13 +1669,13 @@
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1684,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>206</v>
@@ -1696,13 +1705,13 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1720,7 +1729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>207</v>
@@ -1732,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1756,7 +1765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>B34*100+C34</f>
         <v>208</v>
@@ -1768,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1792,7 +1801,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ref="A35:A36" si="5">B35*100+C35</f>
         <v>209</v>
@@ -1804,13 +1813,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1828,7 +1837,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>210</v>
@@ -1840,13 +1849,13 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1864,7 +1873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>B37*100+C37</f>
         <v>300</v>
@@ -1876,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1900,7 +1909,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>B38*100+C38</f>
         <v>301</v>
@@ -1912,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1930,7 +1939,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ref="A39:A44" si="6">B39*100+C39</f>
         <v>302</v>
@@ -1942,13 +1951,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1960,7 +1969,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="6"/>
         <v>303</v>
@@ -1972,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1990,7 +1999,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="6"/>
         <v>304</v>
@@ -2002,13 +2011,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2020,7 +2029,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="6"/>
         <v>305</v>
@@ -2032,13 +2041,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2056,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="6"/>
         <v>306</v>
@@ -2068,13 +2077,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2092,7 +2101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="6"/>
         <v>307</v>
@@ -2104,13 +2113,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2128,7 +2137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>B45*100+C45</f>
         <v>308</v>
@@ -2140,13 +2149,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2164,7 +2173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ref="A46:A47" si="7">B46*100+C46</f>
         <v>309</v>
@@ -2176,13 +2185,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2200,7 +2209,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="7"/>
         <v>310</v>
@@ -2212,13 +2221,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2236,7 +2245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>B48*100+C48</f>
         <v>400</v>
@@ -2248,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2272,7 +2281,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>B49*100+C49</f>
         <v>401</v>
@@ -2284,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2302,7 +2311,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ref="A50:A55" si="8">B50*100+C50</f>
         <v>402</v>
@@ -2314,13 +2323,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2332,7 +2341,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>403</v>
@@ -2344,13 +2353,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2362,7 +2371,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>404</v>
@@ -2374,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2392,7 +2401,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>405</v>
@@ -2404,13 +2413,13 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2428,7 +2437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="8"/>
         <v>406</v>
@@ -2440,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2464,7 +2473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="8"/>
         <v>407</v>
@@ -2476,13 +2485,13 @@
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2500,7 +2509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>B56*100+C56</f>
         <v>408</v>
@@ -2512,13 +2521,13 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2536,7 +2545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ref="A57:A58" si="9">B57*100+C57</f>
         <v>409</v>
@@ -2548,13 +2557,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2572,7 +2581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="9"/>
         <v>410</v>
@@ -2584,13 +2593,13 @@
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2616,16 +2625,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,14 +2644,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2655,13 +2664,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2673,13 +2682,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
